--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Sdc4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Sdc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,25 +528,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H2">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I2">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J2">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N2">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O2">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P2">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q2">
-        <v>16.61803985209333</v>
+        <v>0.09710163983333332</v>
       </c>
       <c r="R2">
-        <v>149.56235866884</v>
+        <v>0.8739147584999999</v>
       </c>
       <c r="S2">
-        <v>0.05681830418508835</v>
+        <v>0.0002812804595492269</v>
       </c>
       <c r="T2">
-        <v>0.05681830418508835</v>
+        <v>0.0002812804595492269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H3">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I3">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J3">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q3">
-        <v>50.17853521251999</v>
+        <v>0.6988058858146667</v>
       </c>
       <c r="R3">
-        <v>451.6068169126799</v>
+        <v>6.289252972332</v>
       </c>
       <c r="S3">
-        <v>0.1715641136164436</v>
+        <v>0.002024275192829218</v>
       </c>
       <c r="T3">
-        <v>0.1715641136164436</v>
+        <v>0.002024275192829217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H4">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I4">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J4">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N4">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q4">
-        <v>96.01521590526666</v>
+        <v>1.879932096116</v>
       </c>
       <c r="R4">
-        <v>864.1369431474</v>
+        <v>16.919388865044</v>
       </c>
       <c r="S4">
-        <v>0.3282831063264762</v>
+        <v>0.005445718165259307</v>
       </c>
       <c r="T4">
-        <v>0.3282831063264762</v>
+        <v>0.005445718165259305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H5">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I5">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J5">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N5">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q5">
-        <v>122.4557635868667</v>
+        <v>2.065697434237333</v>
       </c>
       <c r="R5">
-        <v>1102.1018722818</v>
+        <v>18.591276908136</v>
       </c>
       <c r="S5">
-        <v>0.4186852893976788</v>
+        <v>0.005983836365577783</v>
       </c>
       <c r="T5">
-        <v>0.4186852893976788</v>
+        <v>0.005983836365577781</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H6">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I6">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J6">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N6">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O6">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P6">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q6">
-        <v>0.419973159884</v>
+        <v>6.972491435</v>
       </c>
       <c r="R6">
-        <v>3.779758438956</v>
+        <v>62.752422915</v>
       </c>
       <c r="S6">
-        <v>0.001435919215517828</v>
+        <v>0.02019765678938198</v>
       </c>
       <c r="T6">
-        <v>0.001435919215517828</v>
+        <v>0.02019765678938198</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H7">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I7">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J7">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q7">
-        <v>1.268118152268</v>
+        <v>50.17853521252001</v>
       </c>
       <c r="R7">
-        <v>11.413063370412</v>
+        <v>451.60681691268</v>
       </c>
       <c r="S7">
-        <v>0.004335789513052537</v>
+        <v>0.1453553355876439</v>
       </c>
       <c r="T7">
-        <v>0.004335789513052538</v>
+        <v>0.1453553355876439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H8">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I8">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J8">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N8">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q8">
-        <v>2.42650841974</v>
+        <v>134.99061870684</v>
       </c>
       <c r="R8">
-        <v>21.83857577766</v>
+        <v>1214.91556836156</v>
       </c>
       <c r="S8">
-        <v>0.00829641129324276</v>
+        <v>0.3910358602580459</v>
       </c>
       <c r="T8">
-        <v>0.00829641129324276</v>
+        <v>0.3910358602580458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H9">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I9">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J9">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N9">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q9">
-        <v>3.09471721318</v>
+        <v>148.32970578296</v>
       </c>
       <c r="R9">
-        <v>27.85245491862</v>
+        <v>1334.96735204664</v>
       </c>
       <c r="S9">
-        <v>0.01058106645249984</v>
+        <v>0.4296760371817128</v>
       </c>
       <c r="T9">
-        <v>0.01058106645249984</v>
+        <v>0.4296760371817127</v>
       </c>
     </row>
   </sheetData>
